--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L1-顧客管理作業/FinReportCashFlow.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L1-顧客管理作業/FinReportCashFlow.xlsx
@@ -1,21 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L1-顧客管理作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7178816-6967-4B5D-8AB5-84F9C73C034F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -116,10 +127,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>UKey</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>營業活動淨現金流入(出)</t>
   </si>
   <si>
@@ -203,22 +210,26 @@
     <t>備註說明</t>
   </si>
   <si>
-    <t>CustUKey,UKey</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>客戶財務報表.現金流量表</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>FinReportCashFlow</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ukey</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustUKey,Ukey</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -439,8 +450,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 2 2" xfId="2"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -531,6 +542,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -566,6 +594,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -741,11 +786,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -765,10 +810,10 @@
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="7"/>
@@ -793,10 +838,10 @@
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
@@ -851,22 +896,22 @@
         <v>14</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="D8" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="E8" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="F8" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="G8" s="10" t="s">
         <v>49</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
@@ -894,7 +939,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>23</v>
@@ -914,10 +959,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>24</v>
@@ -934,10 +979,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>24</v>
@@ -954,10 +999,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>24</v>
@@ -974,13 +1019,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" s="3">
         <v>20</v>
@@ -994,13 +1039,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="E15" s="3">
         <v>20</v>
@@ -1014,10 +1059,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>24</v>
@@ -1034,10 +1079,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>24</v>
@@ -1054,10 +1099,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>24</v>
@@ -1575,12 +1620,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L1-顧客管理作業/FinReportCashFlow.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L1-顧客管理作業/FinReportCashFlow.xlsx
@@ -1,32 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L1-顧客管理作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7178816-6967-4B5D-8AB5-84F9C73C034F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62BF166-DA73-4AA0-AAF2-A2001EB969BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -53,9 +43,6 @@
     <t>LastUpdateEmpNo</t>
   </si>
   <si>
-    <t>DATE</t>
-  </si>
-  <si>
     <t>Table</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -224,6 +211,9 @@
   <si>
     <t>CustUKey,Ukey</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
@@ -380,7 +370,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -393,16 +383,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -414,9 +404,6 @@
     <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -425,9 +412,6 @@
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -467,9 +451,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -507,9 +491,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -542,26 +526,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -594,26 +561,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -789,137 +739,137 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.21875" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.21875" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.88671875" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.21875" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.88671875" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.5546875" style="15" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="21.44140625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="21"/>
+      <c r="A1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="19"/>
       <c r="C1" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="21"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="12" t="s">
+      <c r="B4" s="19"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="9" t="s">
+      <c r="C8" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="D8" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="E8" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="F8" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="G8" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>4</v>
@@ -939,10 +889,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>3</v>
@@ -959,13 +909,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11" s="3">
         <v>18</v>
@@ -979,13 +929,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12" s="3">
         <v>18</v>
@@ -999,13 +949,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13" s="3">
         <v>18</v>
@@ -1019,13 +969,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E14" s="3">
         <v>20</v>
@@ -1039,13 +989,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="E15" s="3">
         <v>20</v>
@@ -1059,13 +1009,13 @@
         <v>8</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16" s="3">
         <v>18</v>
@@ -1079,13 +1029,13 @@
         <v>9</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17" s="3">
         <v>18</v>
@@ -1099,13 +1049,13 @@
         <v>10</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18" s="3">
         <v>18</v>
@@ -1119,13 +1069,13 @@
         <v>11</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -1137,10 +1087,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>3</v>
@@ -1157,13 +1107,13 @@
         <v>13</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -1178,7 +1128,7 @@
         <v>5</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>3</v>
@@ -1623,7 +1573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
